--- a/AjkerDeal.xlsx
+++ b/AjkerDeal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\afia\SoftWare\Testing\afia apu\Class--3-30.07.22(Test Case  Writing)-20240730T080943Z-001\Class--3-30.07.22(Test Case  Writing)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B953C-9783-46C6-A6F8-AFA1BC042636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374CE47A-A971-43D8-84DD-49405C8F66BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{7CF11ADE-8E7F-44F8-82AB-06A83394CB60}"/>
+    <workbookView xWindow="20370" yWindow="-2475" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{7CF11ADE-8E7F-44F8-82AB-06A83394CB60}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="407">
   <si>
     <t>Product Name</t>
   </si>
@@ -1504,13 +1504,122 @@
     <t>Verify with valid product</t>
   </si>
   <si>
-    <t>shirt</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC004 </t>
   </si>
   <si>
-    <t>Verify product name case sensitivity</t>
+    <t>1.User should stay in product page
+2.In product page ,need product which will search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://ajkerdeal.com/
+2.Click search box
+3.write desire product
+4.Click search icon </t>
+  </si>
+  <si>
+    <t>Should show all search product</t>
+  </si>
+  <si>
+    <t>All search product show</t>
+  </si>
+  <si>
+    <t>PaNt</t>
+  </si>
+  <si>
+    <t>All product should show.</t>
+  </si>
+  <si>
+    <t>Verify search option isn't case sensitive</t>
+  </si>
+  <si>
+    <t>Verify search with special characters</t>
+  </si>
+  <si>
+    <t>P$&amp;a?n&amp;t</t>
+  </si>
+  <si>
+    <t>1.User should stay in product page
+2.Search option should functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should give error message like invalid input </t>
+  </si>
+  <si>
+    <t>Verify search bar autocomplete suggestions</t>
+  </si>
+  <si>
+    <t>lap for laptop</t>
+  </si>
+  <si>
+    <t>1.site supports autocomplete for the search bar
+2.There are several products in the database related to the search term</t>
+  </si>
+  <si>
+    <t>The autocomplete dropdown should show relevant product suggestions as the user types</t>
+  </si>
+  <si>
+    <t>Wrong product suggestions show</t>
+  </si>
+  <si>
+    <t>Verify search results with filters applied</t>
+  </si>
+  <si>
+    <t>1.The e-commerce site/application supports search filters (e.g., category, price range).
+2.There are products in various categories and price ranges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to site url https://ajkerdeal.com/
+2.Click search box
+3.Type a partial product name
+4.Observe the autocomplete suggestions as the user types
+5.Click search icon 
+</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://ajkerdeal.com/
+2.Click search box
+3.Type a valid search term (e.g., "Smartphone")
+4.Apply filters (set price range from 20KBDT to 30KBDT).
+5.Press the "Search" button or hit Enter.
+6.Wait for the results to load.</t>
+  </si>
+  <si>
+    <t>Products should be displayed in the correct price range or category</t>
+  </si>
+  <si>
+    <t>No filter works</t>
+  </si>
+  <si>
+    <t>Verify search results with sorting options applied</t>
+  </si>
+  <si>
+    <t>1.The e-commerce site/application supports sorting of search results
+2.There are products in various price ranges, ratings, and categories</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>1.Go to site url https://ajkerdeal.com/ 
+2.enter a valid search term (e.g., ""Headphones"")
+3.Press the ""Search"" button or hit Enter
+4.Apply a sorting option, such as ""Price: Low to High"" or ""Best Sellers
+5.Wait for the results to load</t>
+  </si>
+  <si>
+    <t>No sort is work</t>
+  </si>
+  <si>
+    <t>The search results should be sorted according to the selected option</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>25/1/2025</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1828,18 +1937,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1905,9 +2002,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1928,9 +2022,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,17 +2034,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2004,7 +2089,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2121,13 +2205,76 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2698,27 +2845,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="77" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="77" customWidth="1"/>
-    <col min="7" max="7" width="13" style="80" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" style="78" customWidth="1"/>
-    <col min="9" max="9" width="13" style="73" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="1" width="21.140625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="69" customWidth="1"/>
+    <col min="7" max="7" width="13" style="71" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="13" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2727,7 +2874,7 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -2736,24 +2883,24 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="5">
@@ -2761,10 +2908,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2773,10 +2920,10 @@
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="8">
@@ -2784,24 +2931,24 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="9">
@@ -2810,16 +2957,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="27" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="10">
@@ -2836,7 +2983,7 @@
       <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -2848,7 +2995,7 @@
       <c r="G6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
@@ -2858,10 +3005,10 @@
       <c r="B7" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>225</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2870,20 +3017,20 @@
       <c r="F7" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="16"/>
       <c r="I8" s="13"/>
     </row>
@@ -2894,10 +3041,10 @@
       <c r="B9" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>225</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -2906,7 +3053,7 @@
       <c r="F9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="17"/>
@@ -2915,10 +3062,10 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="31"/>
+      <c r="C10" s="27"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="17"/>
       <c r="I10" s="13"/>
     </row>
@@ -2929,10 +3076,10 @@
       <c r="B11" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>229</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2941,7 +3088,7 @@
       <c r="F11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="16"/>
@@ -2950,11 +3097,11 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="41"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="16"/>
       <c r="I12" s="13"/>
     </row>
@@ -2965,10 +3112,10 @@
       <c r="B13" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>225</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2977,7 +3124,7 @@
       <c r="F13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="17"/>
@@ -2986,11 +3133,11 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="37"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="17"/>
       <c r="I14" s="13"/>
     </row>
@@ -3001,10 +3148,10 @@
       <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>223</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -3013,7 +3160,7 @@
       <c r="F15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="16"/>
@@ -3022,11 +3169,11 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="41"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="16"/>
       <c r="I16" s="13"/>
     </row>
@@ -3037,10 +3184,10 @@
       <c r="B17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>225</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -3049,21 +3196,21 @@
       <c r="F17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="30"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -3073,10 +3220,10 @@
       <c r="B19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="20" t="s">
         <v>253</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -3085,465 +3232,465 @@
       <c r="F19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="21" t="s">
         <v>233</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="77" t="s">
+      <c r="F33" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="G33" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="175.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E37" s="77" t="s">
+      <c r="E37" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="F37" s="77" t="s">
+      <c r="F37" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="79" t="s">
+      <c r="G37" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="79" t="s">
+      <c r="G39" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="77" t="s">
+      <c r="E41" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="F41" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="F43" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="81" t="s">
+      <c r="G45" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E47" s="77" t="s">
+      <c r="E47" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="83" t="s">
+      <c r="G47" s="74" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="E49" s="77" t="s">
+      <c r="E49" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="77" t="s">
+      <c r="F49" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="G49" s="79" t="s">
+      <c r="G49" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E51" s="77" t="s">
+      <c r="E51" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="77" t="s">
+      <c r="F51" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="81" t="s">
+      <c r="G51" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="E53" s="77" t="s">
+      <c r="E53" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="F53" s="77" t="s">
+      <c r="F53" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="81" t="s">
+      <c r="G53" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:7" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="75" t="s">
+      <c r="C55" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E55" s="77" t="s">
+      <c r="E55" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="77" t="s">
+      <c r="F55" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="G55" s="81" t="s">
+      <c r="G55" s="72" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="C57" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="77" t="s">
+      <c r="E57" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="F57" s="77" t="s">
+      <c r="F57" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="79" t="s">
+      <c r="G57" s="70" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="D59" s="82" t="s">
+      <c r="D59" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="E59" s="77" t="s">
+      <c r="E59" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="F59" s="77" t="s">
+      <c r="F59" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="G59" s="81" t="s">
+      <c r="G59" s="72" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3617,620 +3764,620 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="86" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="87" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="92" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="87" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="87" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="94" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="85" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="15.42578125" style="77" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="78" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="78" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="83" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="78" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="85" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="76" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="84" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46">
+      <c r="E1" s="41">
         <v>45658</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="70">
+      <c r="G1" s="62">
         <v>45658</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="62">
         <v>45658</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="68" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="50">
         <v>1</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="51">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="52">
         <f>COUNTIF(G8:G29, "WARNING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="57" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="53">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="65"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="79" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="84" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C16" s="87">
+      <c r="C16" s="78">
         <v>1234</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="78" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="83" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="83" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="90" t="s">
+      <c r="G20" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C21" s="87">
+      <c r="C21" s="78">
         <v>45679</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="83" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="83" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="83" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="91" t="s">
+      <c r="C25" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="E25" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="84" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="99"/>
+    <row r="26" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="90"/>
     </row>
     <row r="27" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="87" t="s">
+      <c r="F27" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="84" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="101" t="s">
+      <c r="G29" s="92" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="87" t="s">
+      <c r="F31" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="101" t="s">
+      <c r="G31" s="92" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="91" t="s">
+      <c r="C33" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="88" t="s">
+      <c r="G33" s="79" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="319.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="91">
+      <c r="C35" s="82">
         <v>1951233084</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G35" s="79" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C36" s="87">
+      <c r="C36" s="78">
         <v>12345</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="83" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="372" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="101" t="s">
+      <c r="G38" s="92" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="87">
+      <c r="C39" s="78">
         <v>12345</v>
       </c>
-      <c r="D39" s="92" t="s">
+      <c r="D39" s="83" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D41" s="92" t="s">
+      <c r="D41" s="83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="E43" s="87" t="s">
+      <c r="E43" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="G43" s="101" t="s">
+      <c r="G43" s="92" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="91" t="s">
+      <c r="C45" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="87" t="s">
+      <c r="F45" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="G45" s="88" t="s">
+      <c r="G45" s="79" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="87" t="s">
+      <c r="F47" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="88" t="s">
+      <c r="G47" s="79" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="D49" s="92" t="s">
+      <c r="D49" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="E49" s="87" t="s">
+      <c r="E49" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="87" t="s">
+      <c r="F49" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="101" t="s">
+      <c r="G49" s="92" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4281,827 +4428,827 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD98082-52EB-468A-AD87-74210C56D346}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="5" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="86" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="87" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="108" customWidth="1"/>
-    <col min="4" max="4" width="19" style="108" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="98" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="108" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="108" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="115" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="85" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="17.42578125" style="77" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="99" customWidth="1"/>
+    <col min="4" max="4" width="19" style="99" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="89" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="99" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="106" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="76" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="111">
+      <c r="F1" s="102">
         <v>45778</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="113">
+      <c r="H1" s="104">
         <v>45778</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="45"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="84" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="113">
+      <c r="H2" s="104">
         <v>45778</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="47">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="102" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="75">
         <v>1</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="51">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="51" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="84" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="52">
         <f>COUNTIF(H8:H17, "WARNING")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="57" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="53">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E8" s="72"/>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C14" s="107"/>
-      <c r="E14" s="72"/>
-      <c r="H14" s="116"/>
+      <c r="C14" s="98"/>
+      <c r="E14" s="64"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="83" t="s">
         <v>297</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="108" t="s">
+      <c r="G17" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="108" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="94" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="H19" s="118" t="s">
+      <c r="H19" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="F21" s="108" t="s">
+      <c r="F21" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="108" t="s">
+      <c r="G21" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="118" t="s">
+      <c r="H21" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="94" t="s">
         <v>307</v>
       </c>
-      <c r="F23" s="108" t="s">
+      <c r="F23" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="94" t="s">
         <v>308</v>
       </c>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="H25" s="118" t="s">
+      <c r="H25" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="118" t="s">
+      <c r="H27" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="94" t="s">
         <v>311</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="114" t="s">
+      <c r="H29" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="94" t="s">
         <v>313</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="H31" s="114" t="s">
+      <c r="H31" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="98" t="s">
+      <c r="E33" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="H33" s="114" t="s">
+      <c r="H33" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="94" t="s">
         <v>317</v>
       </c>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="H35" s="114" t="s">
+      <c r="H35" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="78" t="s">
         <v>320</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="E37" s="98" t="s">
+      <c r="E37" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="H37" s="114" t="s">
+      <c r="H37" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D40" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="F40" s="110" t="s">
+      <c r="F40" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="99" t="s">
         <v>325</v>
       </c>
-      <c r="H40" s="114" t="s">
+      <c r="H40" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D41" s="108" t="s">
+      <c r="D41" s="99" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="99" t="s">
         <v>331</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="F42" s="110" t="s">
+      <c r="F42" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="G42" s="110" t="s">
+      <c r="G42" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="H42" s="114" t="s">
+      <c r="H42" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.2">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="87" t="s">
+      <c r="B44" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="E44" s="104" t="s">
+      <c r="E44" s="95" t="s">
         <v>339</v>
       </c>
-      <c r="F44" s="108" t="s">
+      <c r="F44" s="99" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="108" t="s">
+      <c r="G44" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="118" t="s">
+      <c r="H44" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="D46" s="108" t="s">
+      <c r="D46" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E46" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F46" s="108" t="s">
+      <c r="F46" s="99" t="s">
         <v>342</v>
       </c>
-      <c r="G46" s="108" t="s">
+      <c r="G46" s="99" t="s">
         <v>341</v>
       </c>
-      <c r="H46" s="114" t="s">
+      <c r="H46" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D48" s="108" t="s">
+      <c r="D48" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="F48" s="108" t="s">
+      <c r="F48" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="G48" s="108" t="s">
+      <c r="G48" s="99" t="s">
         <v>346</v>
       </c>
-      <c r="H48" s="114" t="s">
+      <c r="H48" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="86" t="s">
+      <c r="A50" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="87" t="s">
+      <c r="B50" s="78" t="s">
         <v>348</v>
       </c>
-      <c r="C50" s="107" t="s">
+      <c r="C50" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D50" s="108" t="s">
+      <c r="D50" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="E50" s="98" t="s">
+      <c r="E50" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="F50" s="108" t="s">
+      <c r="F50" s="99" t="s">
         <v>349</v>
       </c>
-      <c r="G50" s="108" t="s">
+      <c r="G50" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="H50" s="118" t="s">
+      <c r="H50" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="78" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="108" t="s">
+      <c r="D53" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="E53" s="98" t="s">
+      <c r="E53" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="F53" s="108" t="s">
+      <c r="F53" s="99" t="s">
         <v>352</v>
       </c>
-      <c r="G53" s="108" t="s">
+      <c r="G53" s="99" t="s">
         <v>351</v>
       </c>
-      <c r="H53" s="118" t="s">
+      <c r="H53" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C55" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D55" s="108" t="s">
+      <c r="D55" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="E55" s="98" t="s">
+      <c r="E55" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="F55" s="108" t="s">
+      <c r="F55" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="G55" s="108" t="s">
+      <c r="G55" s="99" t="s">
         <v>356</v>
       </c>
-      <c r="H55" s="118" t="s">
+      <c r="H55" s="109" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="78" t="s">
         <v>358</v>
       </c>
-      <c r="C57" s="107" t="s">
+      <c r="C57" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="D57" s="108" t="s">
+      <c r="D57" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="E57" s="98" t="s">
+      <c r="E57" s="89" t="s">
         <v>359</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="F57" s="101" t="s">
         <v>362</v>
       </c>
-      <c r="G57" s="108" t="s">
+      <c r="G57" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="H57" s="118" t="s">
+      <c r="H57" s="109" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5159,259 +5306,406 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913DB0EE-9662-4A7E-8BC8-8C013A705C85}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="49" customWidth="1"/>
-    <col min="2" max="2" width="20" style="49" customWidth="1"/>
-    <col min="3" max="3" width="18" style="49" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="49" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="8.7109375" style="123" customWidth="1"/>
+    <col min="2" max="2" width="20" style="123" customWidth="1"/>
+    <col min="3" max="3" width="18" style="121" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="120" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="123" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" style="123" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="123" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="85" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:10" s="76" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="84" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="111">
-        <v>45778</v>
-      </c>
-      <c r="G1" s="112" t="s">
+      <c r="F1" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="113">
-        <v>45778</v>
-      </c>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="104" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" s="85" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="J1" s="115"/>
+    </row>
+    <row r="2" spans="1:10" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="84" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="125" t="s">
         <v>363</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="113">
-        <v>45778</v>
-      </c>
-      <c r="I2" s="52" t="s">
+      <c r="H2" s="104" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="118"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="75">
+        <v>1</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="118" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="85" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="84">
-        <v>1</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="85" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="51" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="84" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="85" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:10" s="76" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="57" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="76" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="85" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="65"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="122" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="128" t="s">
         <v>368</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="122" t="s">
         <v>365</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="122" t="s">
         <v>366</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="129" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="66"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="122" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="121" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="128" t="s">
         <v>371</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="123" t="s">
         <v>373</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="123" t="s">
         <v>372</v>
       </c>
-      <c r="H9" s="121" t="s">
+      <c r="H9" s="130" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="102"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="E10" s="128"/>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="121" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="128" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11" s="130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="123" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="B13" s="122" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="E13" s="128" t="s">
         <v>377</v>
       </c>
+      <c r="F13" s="122" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>379</v>
+      </c>
+      <c r="H13" s="130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="122" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="122" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="E17" s="128" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="122" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17" s="131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>395</v>
+      </c>
+      <c r="F19" s="101" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" s="123" t="s">
+        <v>397</v>
+      </c>
+      <c r="H19" s="131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>402</v>
+      </c>
+      <c r="F21" s="101" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="123" t="s">
+        <v>403</v>
+      </c>
+      <c r="H21" s="131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="58"/>
+      <c r="E22" s="133"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="133"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="J2:J3">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
